--- a/runs/run417/NotionalETEOutput417.xlsx
+++ b/runs/run417/NotionalETEOutput417.xlsx
@@ -52,7 +52,7 @@
     <t>Missile_SOMERSAULT1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT1_412.MISSILE_SOMERSAULT1_412</t>
+    <t>MISSILE_SOMERSAULT1_181.MISSILE_SOMERSAULT1_181</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT1</t>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1502.282425483597</v>
+        <v>-1491.166443328359</v>
       </c>
       <c r="J2">
-        <v>1909.36775484772</v>
+        <v>1982.162447258384</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1430.683889014998</v>
+        <v>-1427.004323002252</v>
       </c>
       <c r="J3">
-        <v>1979.039389366356</v>
+        <v>1974.92996259251</v>
       </c>
       <c r="K3">
-        <v>315.167451615267</v>
+        <v>295.8923682809897</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1457.427253296727</v>
+        <v>-1416.967194726456</v>
       </c>
       <c r="J4">
-        <v>1933.42936174903</v>
+        <v>1835.208363700362</v>
       </c>
       <c r="K4">
-        <v>590.4646857806223</v>
+        <v>569.0974292033044</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1459.636915318139</v>
+        <v>-1342.714012350796</v>
       </c>
       <c r="J5">
-        <v>1769.20923140216</v>
+        <v>1852.598096827057</v>
       </c>
       <c r="K5">
-        <v>867.4080173098899</v>
+        <v>892.9897437509621</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1347.725265716565</v>
+        <v>-1333.987799983307</v>
       </c>
       <c r="J6">
-        <v>1726.034510920051</v>
+        <v>1732.984683186411</v>
       </c>
       <c r="K6">
-        <v>1168.046767001833</v>
+        <v>1162.676605252935</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1371.885002152694</v>
+        <v>-1381.538182777026</v>
       </c>
       <c r="J7">
-        <v>1836.534275971362</v>
+        <v>1692.76348456759</v>
       </c>
       <c r="K7">
-        <v>1413.865988562612</v>
+        <v>1345.458254102105</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1332.419878814723</v>
+        <v>-1256.08173030776</v>
       </c>
       <c r="J8">
-        <v>1658.566850436353</v>
+        <v>1665.865450292094</v>
       </c>
       <c r="K8">
-        <v>1582.211067828427</v>
+        <v>1617.996443973291</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.12099887439479</v>
+        <v>-100.4252565788698</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1260.362980428724</v>
+        <v>-1314.416479746608</v>
       </c>
       <c r="J9">
-        <v>1635.25252639175</v>
+        <v>1697.102587092168</v>
       </c>
       <c r="K9">
-        <v>1742.639503614564</v>
+        <v>1757.336889652646</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>220.8881529670977</v>
+        <v>222.3347213057833</v>
       </c>
       <c r="G10">
-        <v>-83.67496698169404</v>
+        <v>-80.20351445330024</v>
       </c>
       <c r="H10">
-        <v>816.4006078307228</v>
+        <v>891.4644300036956</v>
       </c>
       <c r="I10">
-        <v>-1268.325850037688</v>
+        <v>-1280.853405964914</v>
       </c>
       <c r="J10">
-        <v>1679.532516324982</v>
+        <v>1632.615208652829</v>
       </c>
       <c r="K10">
-        <v>1996.863075836775</v>
+        <v>1908.556206206938</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.7583597506762</v>
+        <v>168.0336355651972</v>
       </c>
       <c r="G11">
-        <v>-65.7911418208793</v>
+        <v>-64.13457914292273</v>
       </c>
       <c r="H11">
-        <v>1062.888973630855</v>
+        <v>1032.222015914123</v>
       </c>
       <c r="I11">
-        <v>-1212.098972082903</v>
+        <v>-1149.845517167777</v>
       </c>
       <c r="J11">
-        <v>1537.119959514271</v>
+        <v>1516.717998024501</v>
       </c>
       <c r="K11">
-        <v>2227.385690283415</v>
+        <v>2177.262821481139</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>136.3575301628891</v>
+        <v>141.6973682271366</v>
       </c>
       <c r="G12">
-        <v>-49.31848386710138</v>
+        <v>-49.47776171822868</v>
       </c>
       <c r="H12">
-        <v>1144.827217304679</v>
+        <v>1168.282953143728</v>
       </c>
       <c r="I12">
-        <v>-1151.748051191468</v>
+        <v>-1187.637336861734</v>
       </c>
       <c r="J12">
-        <v>1480.131294364199</v>
+        <v>1468.333103272749</v>
       </c>
       <c r="K12">
-        <v>2309.534640622231</v>
+        <v>2436.400078582408</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.6880416658345</v>
+        <v>121.0050386164185</v>
       </c>
       <c r="G13">
-        <v>-33.95435417050079</v>
+        <v>-35.49075390942489</v>
       </c>
       <c r="H13">
-        <v>1306.884985514989</v>
+        <v>1283.375796093012</v>
       </c>
       <c r="I13">
-        <v>-1174.274735462779</v>
+        <v>-1077.327895588273</v>
       </c>
       <c r="J13">
-        <v>1434.919522764455</v>
+        <v>1436.36664802518</v>
       </c>
       <c r="K13">
-        <v>2501.972807453455</v>
+        <v>2550.427121853836</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.7285086005314</v>
+        <v>112.6204895948746</v>
       </c>
       <c r="G14">
-        <v>-18.15788389174967</v>
+        <v>-17.27991293616677</v>
       </c>
       <c r="H14">
-        <v>1377.407175778223</v>
+        <v>1391.971035054495</v>
       </c>
       <c r="I14">
-        <v>-1096.012102121611</v>
+        <v>-1094.034970770357</v>
       </c>
       <c r="J14">
-        <v>1409.994753923927</v>
+        <v>1376.788934585724</v>
       </c>
       <c r="K14">
-        <v>2707.712560878353</v>
+        <v>2650.253096819707</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>102.0543459252215</v>
+        <v>101.2006845065814</v>
       </c>
       <c r="G15">
-        <v>-0.9110547869712312</v>
+        <v>-0.9066897464405823</v>
       </c>
       <c r="H15">
-        <v>1336.035778416977</v>
+        <v>1444.548822456365</v>
       </c>
       <c r="I15">
-        <v>-1100.724403441068</v>
+        <v>-1020.662829015234</v>
       </c>
       <c r="J15">
-        <v>1393.920169362728</v>
+        <v>1397.018032454251</v>
       </c>
       <c r="K15">
-        <v>2636.444799033032</v>
+        <v>2881.923398518749</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.88946854914219</v>
+        <v>92.73165423381023</v>
       </c>
       <c r="G16">
-        <v>14.8367618715702</v>
+        <v>15.6003802232347</v>
       </c>
       <c r="H16">
-        <v>1375.063224689876</v>
+        <v>1448.867582185398</v>
       </c>
       <c r="I16">
-        <v>-967.9679879122783</v>
+        <v>-1005.657418321819</v>
       </c>
       <c r="J16">
-        <v>1346.266779215286</v>
+        <v>1345.006616680014</v>
       </c>
       <c r="K16">
-        <v>2781.557031637644</v>
+        <v>2997.065408112298</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>89.15361054628501</v>
+        <v>89.57072299642591</v>
       </c>
       <c r="G17">
-        <v>32.35427896050516</v>
+        <v>32.38331482184037</v>
       </c>
       <c r="H17">
-        <v>1404.024738916074</v>
+        <v>1412.996984230857</v>
       </c>
       <c r="I17">
-        <v>-947.4482311325397</v>
+        <v>-1018.48091635675</v>
       </c>
       <c r="J17">
-        <v>1276.349790092306</v>
+        <v>1248.662913765501</v>
       </c>
       <c r="K17">
-        <v>2938.228893886151</v>
+        <v>3100.461335685275</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.85854886435531</v>
+        <v>80.98546664785989</v>
       </c>
       <c r="G18">
-        <v>48.63134432257839</v>
+        <v>50.37224389427688</v>
       </c>
       <c r="H18">
-        <v>1564.754006809782</v>
+        <v>1559.500115853337</v>
       </c>
       <c r="I18">
-        <v>-967.434088272325</v>
+        <v>-945.5209958282317</v>
       </c>
       <c r="J18">
-        <v>1248.414809566158</v>
+        <v>1199.93033980843</v>
       </c>
       <c r="K18">
-        <v>3036.108911301373</v>
+        <v>3018.402926259451</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.15214244513747</v>
+        <v>74.54704998120293</v>
       </c>
       <c r="G19">
-        <v>62.17055654337512</v>
+        <v>66.50420893619636</v>
       </c>
       <c r="H19">
-        <v>1513.436677257044</v>
+        <v>1517.630284282725</v>
       </c>
       <c r="I19">
-        <v>-891.7952164985077</v>
+        <v>-894.5590972212038</v>
       </c>
       <c r="J19">
-        <v>1207.98656633218</v>
+        <v>1214.626491260243</v>
       </c>
       <c r="K19">
-        <v>3015.918390427908</v>
+        <v>3077.077810526576</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.97187204557039</v>
+        <v>76.87872001884668</v>
       </c>
       <c r="G20">
-        <v>81.49447052052778</v>
+        <v>78.91543030556034</v>
       </c>
       <c r="H20">
-        <v>1618.266603149264</v>
+        <v>1590.450342797076</v>
       </c>
       <c r="I20">
-        <v>-821.4494934121357</v>
+        <v>-853.3346161466873</v>
       </c>
       <c r="J20">
-        <v>1150.851252608626</v>
+        <v>1147.649441180591</v>
       </c>
       <c r="K20">
-        <v>3073.545087237001</v>
+        <v>3279.833565845126</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.37002593644583</v>
+        <v>71.83366473883699</v>
       </c>
       <c r="G21">
-        <v>95.17634337041201</v>
+        <v>102.4326318319533</v>
       </c>
       <c r="H21">
-        <v>1587.771738807027</v>
+        <v>1569.011648299399</v>
       </c>
       <c r="I21">
-        <v>-767.4034954875398</v>
+        <v>-771.9691045154884</v>
       </c>
       <c r="J21">
-        <v>1079.081536485569</v>
+        <v>1119.044648477263</v>
       </c>
       <c r="K21">
-        <v>3230.454222245839</v>
+        <v>3070.5940665987</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.86348631303352</v>
+        <v>69.4735084213617</v>
       </c>
       <c r="G22">
-        <v>112.1518025234253</v>
+        <v>109.7340047017673</v>
       </c>
       <c r="H22">
-        <v>1574.147967926523</v>
+        <v>1573.757360676695</v>
       </c>
       <c r="I22">
-        <v>-726.8089199290073</v>
+        <v>-739.8939679692211</v>
       </c>
       <c r="J22">
-        <v>1059.370551331031</v>
+        <v>1047.846215175428</v>
       </c>
       <c r="K22">
-        <v>3100.206262063777</v>
+        <v>3163.405068670854</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.21059436505361</v>
+        <v>65.18782001040593</v>
       </c>
       <c r="G23">
-        <v>124.7142910525072</v>
+        <v>129.398839402565</v>
       </c>
       <c r="H23">
-        <v>1561.317107401582</v>
+        <v>1558.466531520205</v>
       </c>
       <c r="I23">
-        <v>-684.4575773698997</v>
+        <v>-718.8576291313366</v>
       </c>
       <c r="J23">
-        <v>953.67001684788</v>
+        <v>933.3266551106783</v>
       </c>
       <c r="K23">
-        <v>3346.36943707978</v>
+        <v>3232.359981533227</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.69660324341432</v>
+        <v>60.90154728958471</v>
       </c>
       <c r="G24">
-        <v>152.6436282520782</v>
+        <v>140.7468501249938</v>
       </c>
       <c r="H24">
-        <v>1725.855463381881</v>
+        <v>1605.555368345299</v>
       </c>
       <c r="I24">
-        <v>-635.5866399583897</v>
+        <v>-664.7074179211997</v>
       </c>
       <c r="J24">
-        <v>885.1854284796076</v>
+        <v>936.7547529763299</v>
       </c>
       <c r="K24">
-        <v>3131.513055154599</v>
+        <v>3087.616038486144</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.33888934024282</v>
+        <v>58.78811635627902</v>
       </c>
       <c r="G25">
-        <v>156.6218666654798</v>
+        <v>172.1328538075479</v>
       </c>
       <c r="H25">
-        <v>1692.406145801998</v>
+        <v>1690.73559071096</v>
       </c>
       <c r="I25">
-        <v>-606.2420660084887</v>
+        <v>-578.9098723535648</v>
       </c>
       <c r="J25">
-        <v>895.4095848508595</v>
+        <v>871.0685728637948</v>
       </c>
       <c r="K25">
-        <v>3050.295432196371</v>
+        <v>3255.1967231162</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.41428498230818</v>
+        <v>59.70281934100719</v>
       </c>
       <c r="G26">
-        <v>173.9555652484182</v>
+        <v>176.4506147452462</v>
       </c>
       <c r="H26">
-        <v>1614.834839194885</v>
+        <v>1627.744665949178</v>
       </c>
       <c r="I26">
-        <v>-555.1108307821618</v>
+        <v>-526.1043244871662</v>
       </c>
       <c r="J26">
-        <v>860.1689177588831</v>
+        <v>823.0126826322677</v>
       </c>
       <c r="K26">
-        <v>3035.970757430846</v>
+        <v>3020.457148203914</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.69558656193786</v>
+        <v>56.8745476772902</v>
       </c>
       <c r="G27">
-        <v>203.8918803815999</v>
+        <v>204.1645534819548</v>
       </c>
       <c r="H27">
-        <v>1717.728790021391</v>
+        <v>1709.785988624964</v>
       </c>
       <c r="I27">
-        <v>-478.8649959795663</v>
+        <v>-493.1377787667645</v>
       </c>
       <c r="J27">
-        <v>748.876324282235</v>
+        <v>810.8295964389587</v>
       </c>
       <c r="K27">
-        <v>3201.815365243118</v>
+        <v>3012.457664774882</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>58.26739382704776</v>
+        <v>57.61115038180495</v>
       </c>
       <c r="G28">
-        <v>207.261035830021</v>
+        <v>221.0809908066253</v>
       </c>
       <c r="H28">
-        <v>1643.726259187142</v>
+        <v>1725.364195615157</v>
       </c>
       <c r="I28">
-        <v>-454.6297140895991</v>
+        <v>-419.4712127449311</v>
       </c>
       <c r="J28">
-        <v>738.1879375930564</v>
+        <v>719.4425504758043</v>
       </c>
       <c r="K28">
-        <v>2899.598031952146</v>
+        <v>2952.233445494608</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.88302672808646</v>
+        <v>57.32117783298465</v>
       </c>
       <c r="G29">
-        <v>224.6911810766662</v>
+        <v>234.5689661019351</v>
       </c>
       <c r="H29">
-        <v>1737.171878633406</v>
+        <v>1818.229081799708</v>
       </c>
       <c r="I29">
-        <v>-381.3280003300616</v>
+        <v>-389.9844970357616</v>
       </c>
       <c r="J29">
-        <v>720.0412298546335</v>
+        <v>673.5603354965772</v>
       </c>
       <c r="K29">
-        <v>2941.882965165135</v>
+        <v>2948.669309160888</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.91177267161159</v>
+        <v>53.16704912992289</v>
       </c>
       <c r="G30">
-        <v>253.0966022974943</v>
+        <v>239.1680746029705</v>
       </c>
       <c r="H30">
-        <v>1804.532750939295</v>
+        <v>1739.382764260127</v>
       </c>
       <c r="I30">
-        <v>-312.0462559578122</v>
+        <v>-333.1516206353104</v>
       </c>
       <c r="J30">
-        <v>627.8877253493915</v>
+        <v>622.0517444368769</v>
       </c>
       <c r="K30">
-        <v>2793.802454491694</v>
+        <v>2844.931570504617</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.63232245791589</v>
+        <v>55.04614962014927</v>
       </c>
       <c r="G31">
-        <v>270.3010667462775</v>
+        <v>255.2168319603568</v>
       </c>
       <c r="H31">
-        <v>1731.908246150366</v>
+        <v>1856.85157360236</v>
       </c>
       <c r="I31">
-        <v>-273.3973466955829</v>
+        <v>-277.1553138126794</v>
       </c>
       <c r="J31">
-        <v>580.8294813834275</v>
+        <v>608.9906876107901</v>
       </c>
       <c r="K31">
-        <v>2735.26696288338</v>
+        <v>2598.452271201298</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.38224743269589</v>
+        <v>52.56010701754918</v>
       </c>
       <c r="G32">
-        <v>288.2165167377856</v>
+        <v>278.8150030304843</v>
       </c>
       <c r="H32">
-        <v>1804.209850142746</v>
+        <v>1788.65008373167</v>
       </c>
       <c r="I32">
-        <v>-200.0941812043645</v>
+        <v>-210.8645808845474</v>
       </c>
       <c r="J32">
-        <v>559.9879701260792</v>
+        <v>524.8081980349741</v>
       </c>
       <c r="K32">
-        <v>2485.066541200018</v>
+        <v>2579.154507396338</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.51227643419397</v>
+        <v>49.75709474898241</v>
       </c>
       <c r="G33">
-        <v>295.5456882864459</v>
+        <v>291.2799578794086</v>
       </c>
       <c r="H33">
-        <v>1738.449378309555</v>
+        <v>1806.575103954556</v>
       </c>
       <c r="I33">
-        <v>-148.3232724130646</v>
+        <v>-142.9463404334861</v>
       </c>
       <c r="J33">
-        <v>480.5216259087035</v>
+        <v>481.9463698054414</v>
       </c>
       <c r="K33">
-        <v>2478.887500645272</v>
+        <v>2269.697470072753</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.42147100544291</v>
+        <v>48.24781876465719</v>
       </c>
       <c r="G34">
-        <v>310.7247959979129</v>
+        <v>303.3711024073108</v>
       </c>
       <c r="H34">
-        <v>1803.599550016959</v>
+        <v>1762.554117010124</v>
       </c>
       <c r="I34">
-        <v>-82.6158247018965</v>
+        <v>-86.14408214810791</v>
       </c>
       <c r="J34">
-        <v>436.5778847984417</v>
+        <v>428.1344169961272</v>
       </c>
       <c r="K34">
-        <v>2314.377728452228</v>
+        <v>2203.585227582731</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>46.1499826199441</v>
+        <v>48.80355609103312</v>
       </c>
       <c r="G35">
-        <v>314.2390513042374</v>
+        <v>340.5605895635616</v>
       </c>
       <c r="H35">
-        <v>1752.769865524675</v>
+        <v>1802.583253052973</v>
       </c>
       <c r="I35">
-        <v>-18.62236921328422</v>
+        <v>-18.96210441125773</v>
       </c>
       <c r="J35">
-        <v>384.1655824150603</v>
+        <v>377.5168996885058</v>
       </c>
       <c r="K35">
-        <v>1977.978438905735</v>
+        <v>2037.091721965859</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.79795839632545</v>
+        <v>45.31196877823219</v>
       </c>
       <c r="G36">
-        <v>359.7376835602861</v>
+        <v>363.0916325637834</v>
       </c>
       <c r="H36">
-        <v>1813.207033160702</v>
+        <v>1840.239907019854</v>
       </c>
       <c r="I36">
-        <v>47.88874907873415</v>
+        <v>47.82671556207735</v>
       </c>
       <c r="J36">
-        <v>335.1224758503658</v>
+        <v>342.0282359305057</v>
       </c>
       <c r="K36">
-        <v>1860.242406998457</v>
+        <v>1747.163204516401</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.9225439770949</v>
+        <v>47.7528044112492</v>
       </c>
       <c r="G37">
-        <v>367.7751605673131</v>
+        <v>354.224978352551</v>
       </c>
       <c r="H37">
-        <v>1933.042247394876</v>
+        <v>1913.719662240394</v>
       </c>
       <c r="I37">
-        <v>120.485346446646</v>
+        <v>112.0487559821443</v>
       </c>
       <c r="J37">
-        <v>311.3783143264296</v>
+        <v>292.2278375676136</v>
       </c>
       <c r="K37">
-        <v>1685.164754966534</v>
+        <v>1630.900288590726</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.53465138415091</v>
+        <v>46.01397124715263</v>
       </c>
       <c r="G38">
-        <v>394.3742942278432</v>
+        <v>387.0126730593477</v>
       </c>
       <c r="H38">
-        <v>1823.427902246284</v>
+        <v>1933.31899649521</v>
       </c>
       <c r="I38">
-        <v>190.9631900110691</v>
+        <v>188.9530650824417</v>
       </c>
       <c r="J38">
-        <v>238.5395897153895</v>
+        <v>247.3362477630286</v>
       </c>
       <c r="K38">
-        <v>1434.387409380322</v>
+        <v>1369.317109805853</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.52100280751071</v>
+        <v>46.19971691763889</v>
       </c>
       <c r="G39">
-        <v>378.0855455285621</v>
+        <v>408.0489074953087</v>
       </c>
       <c r="H39">
-        <v>1773.757103572279</v>
+        <v>1814.437136850891</v>
       </c>
       <c r="I39">
-        <v>260.0005249184439</v>
+        <v>253.8648452265896</v>
       </c>
       <c r="J39">
-        <v>208.5383753103515</v>
+        <v>198.0979106547709</v>
       </c>
       <c r="K39">
-        <v>1197.317935012702</v>
+        <v>1166.2284893642</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.76508772835686</v>
+        <v>44.19248089330811</v>
       </c>
       <c r="G40">
-        <v>407.705496366037</v>
+        <v>421.5986174932219</v>
       </c>
       <c r="H40">
-        <v>1841.846038002223</v>
+        <v>1870.857943438426</v>
       </c>
       <c r="I40">
-        <v>338.4965560689231</v>
+        <v>322.2520901683415</v>
       </c>
       <c r="J40">
-        <v>146.3769129235574</v>
+        <v>157.4963764996338</v>
       </c>
       <c r="K40">
-        <v>876.0740925623734</v>
+        <v>877.9739320059148</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.85432694665132</v>
+        <v>43.25274814511371</v>
       </c>
       <c r="G41">
-        <v>444.431881195373</v>
+        <v>428.4419516042842</v>
       </c>
       <c r="H41">
-        <v>1903.408720468107</v>
+        <v>1952.332138677002</v>
       </c>
       <c r="I41">
-        <v>420.4393375454407</v>
+        <v>405.8936851163842</v>
       </c>
       <c r="J41">
-        <v>104.7997917964659</v>
+        <v>99.82858874822259</v>
       </c>
       <c r="K41">
-        <v>608.3572244875724</v>
+        <v>614.7652381625951</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.13348900413775</v>
+        <v>44.36268970000909</v>
       </c>
       <c r="G42">
-        <v>441.264903715368</v>
+        <v>430.6706130008444</v>
       </c>
       <c r="H42">
-        <v>1819.15408189659</v>
+        <v>1853.491365609374</v>
       </c>
       <c r="I42">
-        <v>488.8274150936734</v>
+        <v>493.4458298709702</v>
       </c>
       <c r="J42">
-        <v>56.21856473902251</v>
+        <v>51.95329999042186</v>
       </c>
       <c r="K42">
-        <v>328.7160528300234</v>
+        <v>330.0830895345941</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.73115723328379</v>
+        <v>41.45964777433037</v>
       </c>
       <c r="G43">
-        <v>449.6389658193655</v>
+        <v>462.4829854339837</v>
       </c>
       <c r="H43">
-        <v>1896.850608481243</v>
+        <v>1817.648085284549</v>
       </c>
       <c r="I43">
-        <v>561.9463955171823</v>
+        <v>569.688184392509</v>
       </c>
       <c r="J43">
-        <v>5.206715804418787</v>
+        <v>5.441382951885926</v>
       </c>
       <c r="K43">
-        <v>34.53766469252019</v>
+        <v>33.16079529145916</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.32213796078639</v>
+        <v>42.86586749717745</v>
       </c>
       <c r="G44">
-        <v>478.97921121701</v>
+        <v>474.5326045216075</v>
       </c>
       <c r="H44">
-        <v>1947.756006604519</v>
+        <v>1973.333824949851</v>
       </c>
       <c r="I44">
-        <v>633.1293880067678</v>
+        <v>613.1396769750606</v>
       </c>
       <c r="J44">
-        <v>-41.83548052497007</v>
+        <v>-44.64257893219407</v>
       </c>
       <c r="K44">
-        <v>-289.7931011621014</v>
+        <v>-278.9738808249608</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.39341460859544</v>
+        <v>39.91823326234616</v>
       </c>
       <c r="G45">
-        <v>479.3915140561367</v>
+        <v>510.265965626425</v>
       </c>
       <c r="H45">
-        <v>1930.867649564222</v>
+        <v>2009.537754679654</v>
       </c>
       <c r="I45">
-        <v>726.8809023261311</v>
+        <v>737.0977762779049</v>
       </c>
       <c r="J45">
-        <v>-92.1113376517643</v>
+        <v>-90.11952742170993</v>
       </c>
       <c r="K45">
-        <v>-602.9931363832638</v>
+        <v>-602.0413549729573</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.33984805910975</v>
+        <v>39.1415866993868</v>
       </c>
       <c r="G46">
-        <v>511.7550101434525</v>
+        <v>503.5009999514407</v>
       </c>
       <c r="H46">
-        <v>1999.009573281837</v>
+        <v>1981.882701199808</v>
       </c>
       <c r="I46">
-        <v>815.0690134423693</v>
+        <v>816.5812064822782</v>
       </c>
       <c r="J46">
-        <v>-135.680885910916</v>
+        <v>-134.7263503260225</v>
       </c>
       <c r="K46">
-        <v>-928.5348384087569</v>
+        <v>-926.9006323324364</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.03662697023454</v>
+        <v>40.43256006942207</v>
       </c>
       <c r="G47">
-        <v>547.8745997237254</v>
+        <v>516.9355291465013</v>
       </c>
       <c r="H47">
-        <v>1871.476971418037</v>
+        <v>1965.015558741832</v>
       </c>
       <c r="I47">
-        <v>853.3309324423333</v>
+        <v>934.6636832216545</v>
       </c>
       <c r="J47">
-        <v>-182.1734201655584</v>
+        <v>-187.5251602895058</v>
       </c>
       <c r="K47">
-        <v>-1311.244145006192</v>
+        <v>-1291.350377753167</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>37.97420753913643</v>
+        <v>37.79299413398729</v>
       </c>
       <c r="G48">
-        <v>517.732760915429</v>
+        <v>549.3753829657609</v>
       </c>
       <c r="H48">
-        <v>1990.228315749591</v>
+        <v>2015.659424256339</v>
       </c>
       <c r="I48">
-        <v>960.9616813032379</v>
+        <v>1015.292880297972</v>
       </c>
       <c r="J48">
-        <v>-229.068025916663</v>
+        <v>-227.2883993373707</v>
       </c>
       <c r="K48">
-        <v>-1786.392575198294</v>
+        <v>-1629.539909672909</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.61634167681214</v>
+        <v>38.01426176966175</v>
       </c>
       <c r="G49">
-        <v>538.2873289729129</v>
+        <v>538.7365384954993</v>
       </c>
       <c r="H49">
-        <v>2044.870769199595</v>
+        <v>1962.860654005752</v>
       </c>
       <c r="I49">
-        <v>1072.270616226842</v>
+        <v>1065.229817888869</v>
       </c>
       <c r="J49">
-        <v>-284.7779683583412</v>
+        <v>-298.8241884069723</v>
       </c>
       <c r="K49">
-        <v>-2147.993729157675</v>
+        <v>-2166.257484319208</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.90068265709385</v>
+        <v>38.5786144534575</v>
       </c>
       <c r="G50">
-        <v>560.923624613714</v>
+        <v>565.8787181641576</v>
       </c>
       <c r="H50">
-        <v>1967.653563483051</v>
+        <v>1927.390800279775</v>
       </c>
       <c r="I50">
-        <v>1219.078546557453</v>
+        <v>1169.967096866284</v>
       </c>
       <c r="J50">
-        <v>-321.6593030750568</v>
+        <v>-335.2555090701433</v>
       </c>
       <c r="K50">
-        <v>-2546.891406888952</v>
+        <v>-2623.38119888232</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.3102063635884</v>
+        <v>36.66063272141132</v>
       </c>
       <c r="G51">
-        <v>600.5249018960266</v>
+        <v>586.2727465045302</v>
       </c>
       <c r="H51">
-        <v>1998.825931097262</v>
+        <v>2029.331399081101</v>
       </c>
       <c r="I51">
-        <v>1208.760945209473</v>
+        <v>1207.063128324545</v>
       </c>
       <c r="J51">
-        <v>-370.4563153208476</v>
+        <v>-393.870278328786</v>
       </c>
       <c r="K51">
-        <v>-2948.814659019804</v>
+        <v>-2946.257791930698</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.36156269984612</v>
+        <v>37.70936397804553</v>
       </c>
       <c r="G52">
-        <v>629.2673394252113</v>
+        <v>597.1264203455055</v>
       </c>
       <c r="H52">
-        <v>1991.803369045895</v>
+        <v>1938.243940288717</v>
       </c>
       <c r="I52">
-        <v>1343.031618504238</v>
+        <v>1328.499269094422</v>
       </c>
       <c r="J52">
-        <v>-440.8469903234404</v>
+        <v>-438.2546106404737</v>
       </c>
       <c r="K52">
-        <v>-3526.293528788919</v>
+        <v>-3420.135922328185</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.78922988511084</v>
+        <v>36.53875212719924</v>
       </c>
       <c r="G53">
-        <v>643.3984472755787</v>
+        <v>654.6175422961321</v>
       </c>
       <c r="H53">
-        <v>1917.969659934996</v>
+        <v>2060.14585740261</v>
       </c>
       <c r="I53">
-        <v>1504.204616054926</v>
+        <v>1498.462622101786</v>
       </c>
       <c r="J53">
-        <v>-482.3996780775853</v>
+        <v>-503.5192731453836</v>
       </c>
       <c r="K53">
-        <v>-3712.40214505558</v>
+        <v>-3695.347883996191</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.22263609422903</v>
+        <v>38.17222653462559</v>
       </c>
       <c r="G54">
-        <v>667.0657748521752</v>
+        <v>663.2878768066818</v>
       </c>
       <c r="H54">
-        <v>2052.703946918554</v>
+        <v>1955.88125632959</v>
       </c>
       <c r="I54">
-        <v>1546.704723806609</v>
+        <v>1570.917523398468</v>
       </c>
       <c r="J54">
-        <v>-533.6047759018804</v>
+        <v>-513.0841721925322</v>
       </c>
       <c r="K54">
-        <v>-4490.477849986748</v>
+        <v>-4356.698920500751</v>
       </c>
     </row>
   </sheetData>
